--- a/database/industries/darou/delor/cost/quarterly.xlsx
+++ b/database/industries/darou/delor/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\delor\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2CE4FA-306C-430E-9DE5-AE37562C4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA147704-0A0A-4D40-A9C2-4644F3C8B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -701,16 +716,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I163"/>
+  <dimension ref="B1:N163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +734,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,8 +751,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -743,8 +768,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -753,8 +783,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,8 +800,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -777,8 +817,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -787,8 +832,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -809,8 +859,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -819,98 +884,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1000240</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1419174</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1084071</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1501992</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2731474</v>
+      </c>
+      <c r="J10" s="9">
         <v>2124058</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1744332</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>2074140</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>2455797</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>3280580</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>127160</v>
+      </c>
+      <c r="F11" s="11">
+        <v>113870</v>
+      </c>
+      <c r="G11" s="11">
+        <v>128608</v>
+      </c>
+      <c r="H11" s="11">
+        <v>140107</v>
+      </c>
+      <c r="I11" s="11">
+        <v>182813</v>
+      </c>
+      <c r="J11" s="11">
         <v>172795</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>186510</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>237900</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>307512</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>285309</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>182203</v>
+      </c>
+      <c r="F12" s="9">
+        <v>222528</v>
+      </c>
+      <c r="G12" s="9">
+        <v>264580</v>
+      </c>
+      <c r="H12" s="9">
+        <v>227102</v>
+      </c>
+      <c r="I12" s="9">
+        <v>315197</v>
+      </c>
+      <c r="J12" s="9">
         <v>364409</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>342217</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>354061</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>468407</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>477467</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1309603</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1755572</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1477259</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1869201</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3229484</v>
+      </c>
+      <c r="J13" s="13">
         <v>2661262</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>2273059</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>2666101</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>3231716</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>4043356</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -929,54 +1059,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1309603</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1755572</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1477259</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1869201</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3229484</v>
+      </c>
+      <c r="J15" s="13">
         <v>2661262</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>2273059</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>2666101</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>3231716</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>4043356</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>101100</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-96099</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-25084</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-72203</v>
+      </c>
+      <c r="I16" s="9">
+        <v>26945</v>
+      </c>
+      <c r="J16" s="9">
         <v>-136912</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-50790</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-27773</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-86528</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>89559</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -995,32 +1170,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1410703</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1659473</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1452175</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1796998</v>
+      </c>
+      <c r="I18" s="15">
+        <v>3256429</v>
+      </c>
+      <c r="J18" s="15">
         <v>2524350</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>2222269</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>2638328</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>3145188</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>4132915</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1028,65 +1233,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>202930</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1110049</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>404903</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>972477</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>535133</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>488000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-142770</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-202930</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-1110049</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-1287140</v>
+      </c>
+      <c r="I20" s="9">
+        <v>220631</v>
+      </c>
+      <c r="J20" s="9">
         <v>404903</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-972477</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-535133</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-488000</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-664249</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1267933</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1456543</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1060037</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1619907</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3477060</v>
+      </c>
+      <c r="J21" s="13">
         <v>2929253</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1911398</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>3075672</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>3192321</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3956666</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1105,30 +1355,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1267933</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1456543</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1060037</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1619907</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3477060</v>
+      </c>
+      <c r="J23" s="13">
         <v>2929253</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1911398</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>3075672</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>3192321</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3956666</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1137,8 +1417,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1147,8 +1432,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1157,10 +1447,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1179,8 +1474,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1189,126 +1499,206 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>2</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>2</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>2</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
         <v>2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>2</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>2</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>2</v>
       </c>
-      <c r="I33" s="15">
+      <c r="N33" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1317,8 +1707,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1327,8 +1722,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1337,10 +1737,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1359,8 +1764,23 @@
       <c r="I37" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1369,34 +1789,54 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C40" s="11">
         <v>0</v>
@@ -1409,66 +1849,111 @@
         <v>0</v>
       </c>
       <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
         <v>2</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>2</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="9">
+        <v>31</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1479,16 +1964,31 @@
         <v>0</v>
       </c>
       <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
         <v>2</v>
       </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>2</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1497,8 +1997,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1507,8 +2012,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1517,10 +2027,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1539,8 +2054,23 @@
       <c r="I47" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1549,34 +2079,54 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11">
         <v>0</v>
@@ -1589,66 +2139,111 @@
         <v>0</v>
       </c>
       <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
         <v>2</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>2</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="9">
+        <v>31</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1659,16 +2254,31 @@
         <v>0</v>
       </c>
       <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
         <v>2</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>2</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1677,8 +2287,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1687,8 +2302,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1697,10 +2317,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1719,8 +2344,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1729,126 +2369,206 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11">
         <v>0</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
         <v>2</v>
       </c>
-      <c r="F60" s="11">
+      <c r="J60" s="11">
         <v>2</v>
       </c>
-      <c r="G60" s="11">
+      <c r="K60" s="11">
         <v>2</v>
       </c>
-      <c r="H60" s="11">
+      <c r="L60" s="11">
         <v>2</v>
       </c>
-      <c r="I60" s="11">
+      <c r="M60" s="11">
+        <v>2</v>
+      </c>
+      <c r="N60" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="9">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="15">
+        <v>2</v>
+      </c>
+      <c r="K63" s="15">
+        <v>2</v>
+      </c>
+      <c r="L63" s="15">
+        <v>2</v>
+      </c>
+      <c r="M63" s="15">
+        <v>2</v>
+      </c>
+      <c r="N63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1857,8 +2577,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1867,8 +2592,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1877,10 +2607,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1899,8 +2634,23 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1909,126 +2659,206 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>1377883</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1327918</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1335187</v>
+      </c>
+      <c r="H70" s="11">
+        <v>2312210</v>
+      </c>
+      <c r="I70" s="11">
+        <v>2298622</v>
+      </c>
+      <c r="J70" s="11">
         <v>2686103</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>3300576</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>4082209</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>3068591</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>3942866</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
+        <v>1377883</v>
+      </c>
+      <c r="F73" s="15">
+        <v>1327918</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1335187</v>
+      </c>
+      <c r="H73" s="15">
+        <v>2312210</v>
+      </c>
+      <c r="I73" s="15">
+        <v>2298622</v>
+      </c>
+      <c r="J73" s="15">
         <v>2686103</v>
       </c>
-      <c r="F73" s="15">
+      <c r="K73" s="15">
         <v>3300576</v>
       </c>
-      <c r="G73" s="15">
+      <c r="L73" s="15">
         <v>4082209</v>
       </c>
-      <c r="H73" s="15">
+      <c r="M73" s="15">
         <v>3068591</v>
       </c>
-      <c r="I73" s="15">
+      <c r="N73" s="15">
         <v>3942866</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2037,8 +2867,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2047,8 +2882,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2057,10 +2897,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2079,8 +2924,23 @@
       <c r="I77" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2089,126 +2949,206 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>950275</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1426443</v>
+      </c>
+      <c r="G80" s="11">
+        <v>2065973</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1488404</v>
+      </c>
+      <c r="I80" s="11">
+        <v>3112107</v>
+      </c>
+      <c r="J80" s="11">
         <v>2738531</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>2532814</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>1060522</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>3330072</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>647745</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="9">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="9">
         <v>3668489</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>950275</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1426443</v>
+      </c>
+      <c r="G83" s="15">
+        <v>2065973</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1488404</v>
+      </c>
+      <c r="I83" s="15">
+        <v>3112107</v>
+      </c>
+      <c r="J83" s="15">
         <v>2738531</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>2532814</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>1060522</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>3330072</v>
       </c>
-      <c r="I83" s="15">
+      <c r="N83" s="15">
         <v>4316234</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2217,8 +3157,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2227,8 +3172,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2237,10 +3187,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2259,8 +3214,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2269,126 +3239,206 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>1000240</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1419174</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1084071</v>
+      </c>
+      <c r="H90" s="11">
+        <v>1501992</v>
+      </c>
+      <c r="I90" s="11">
+        <v>2731474</v>
+      </c>
+      <c r="J90" s="11">
         <v>2124058</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>1744332</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>2074140</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>2455797</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-10262</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="9">
+        <v>31</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="9">
         <v>3290842</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>1000240</v>
+      </c>
+      <c r="F93" s="15">
+        <v>1419174</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1084071</v>
+      </c>
+      <c r="H93" s="15">
+        <v>1501992</v>
+      </c>
+      <c r="I93" s="15">
+        <v>2731474</v>
+      </c>
+      <c r="J93" s="15">
         <v>2124058</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>1744332</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>2074140</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>2455797</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>3280580</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2397,8 +3447,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2407,8 +3462,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2417,10 +3477,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2439,8 +3504,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2449,126 +3529,206 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>1327918</v>
+      </c>
+      <c r="F100" s="11">
+        <v>1335187</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2312210</v>
+      </c>
+      <c r="H100" s="11">
+        <v>2298622</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2686103</v>
+      </c>
+      <c r="J100" s="11">
         <v>3300576</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>4082209</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>3068591</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>3942866</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>2880897</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9">
+        <v>31</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9">
         <v>2097623</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G102" s="11">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
+        <v>1327918</v>
+      </c>
+      <c r="F103" s="15">
+        <v>1335187</v>
+      </c>
+      <c r="G103" s="15">
+        <v>2312210</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2298622</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2686103</v>
+      </c>
+      <c r="J103" s="15">
         <v>3300576</v>
       </c>
-      <c r="F103" s="15">
+      <c r="K103" s="15">
         <v>4082209</v>
       </c>
-      <c r="G103" s="15">
+      <c r="L103" s="15">
         <v>3068591</v>
       </c>
-      <c r="H103" s="15">
+      <c r="M103" s="15">
         <v>3942866</v>
       </c>
-      <c r="I103" s="15">
+      <c r="N103" s="15">
         <v>4978520</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2577,8 +3737,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2587,8 +3752,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2597,10 +3767,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2619,8 +3794,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2629,56 +3819,91 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
+      <c r="E109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9">
         <v>1343051500000</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>1650288000000</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>2041104500000</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>1534295500000</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>1971433000000</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2687,8 +3912,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2697,8 +3927,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2707,10 +3942,15 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -2729,8 +3969,23 @@
       <c r="I114" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2739,56 +3994,91 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="9">
+        <v>31</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1556053500000</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L116" s="9">
         <v>530261000000</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="9">
+      <c r="M116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" s="9">
         <v>-647745000000</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="11">
+        <v>31</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="11">
         <v>3668489000000</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2797,8 +4087,13 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2807,8 +4102,13 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2817,10 +4117,15 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -2839,8 +4144,23 @@
       <c r="I121" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2849,56 +4169,91 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="9">
+        <v>31</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="9">
+        <v>1365737000000</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="9">
         <v>1037070000000</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="9">
+      <c r="M123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="9">
         <v>10262000000</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I124" s="11">
+        <v>31</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="11">
         <v>3290842000000</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2907,8 +4262,13 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2917,8 +4277,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -2927,10 +4292,15 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -2949,8 +4319,23 @@
       <c r="I128" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2959,56 +4344,91 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
       </c>
       <c r="D130" s="9"/>
-      <c r="E130" s="9">
+      <c r="E130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="9">
+        <v>1343051500000</v>
+      </c>
+      <c r="J130" s="9">
         <v>1650288000000</v>
       </c>
-      <c r="F130" s="9">
+      <c r="K130" s="9">
         <v>2041104500000</v>
       </c>
-      <c r="G130" s="9">
+      <c r="L130" s="9">
         <v>1534295500000</v>
       </c>
-      <c r="H130" s="9">
+      <c r="M130" s="9">
         <v>1971433000000</v>
       </c>
-      <c r="I130" s="9">
+      <c r="N130" s="9">
         <v>2880897000000</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131" s="11">
+        <v>31</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="11">
         <v>2097623000000</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3017,8 +4437,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3027,8 +4452,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3037,10 +4467,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3059,8 +4494,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3069,32 +4519,52 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>6527</v>
+      </c>
+      <c r="F137" s="9">
+        <v>8963</v>
+      </c>
+      <c r="G137" s="9">
+        <v>8901</v>
+      </c>
+      <c r="H137" s="9">
+        <v>7452</v>
+      </c>
+      <c r="I137" s="9">
+        <v>13127</v>
+      </c>
+      <c r="J137" s="9">
         <v>13060</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>17583</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>8826</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>18742</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>20123</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3113,10 +4583,25 @@
       <c r="I138" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="11">
+        <v>0</v>
+      </c>
+      <c r="K138" s="11">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>0</v>
+      </c>
+      <c r="M138" s="11">
+        <v>0</v>
+      </c>
+      <c r="N138" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -3135,10 +4620,25 @@
       <c r="I139" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="9">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9">
+        <v>0</v>
+      </c>
+      <c r="L139" s="9">
+        <v>0</v>
+      </c>
+      <c r="M139" s="9">
+        <v>0</v>
+      </c>
+      <c r="N139" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -3157,98 +4657,173 @@
       <c r="I140" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="11">
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
+      </c>
+      <c r="N140" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>9450</v>
+      </c>
+      <c r="F141" s="9">
+        <v>30160</v>
+      </c>
+      <c r="G141" s="9">
+        <v>12913</v>
+      </c>
+      <c r="H141" s="9">
+        <v>7096</v>
+      </c>
+      <c r="I141" s="9">
+        <v>30195</v>
+      </c>
+      <c r="J141" s="9">
         <v>79872</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>-21677</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>35671</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>29351</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>19914</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>5007</v>
+      </c>
+      <c r="F142" s="11">
+        <v>5335</v>
+      </c>
+      <c r="G142" s="11">
+        <v>8372</v>
+      </c>
+      <c r="H142" s="11">
+        <v>4574</v>
+      </c>
+      <c r="I142" s="11">
+        <v>10893</v>
+      </c>
+      <c r="J142" s="11">
         <v>13541</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>19833</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>8228</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>14900</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>12030</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>8532</v>
+      </c>
+      <c r="F143" s="9">
+        <v>8709</v>
+      </c>
+      <c r="G143" s="9">
+        <v>15480</v>
+      </c>
+      <c r="H143" s="9">
+        <v>13360</v>
+      </c>
+      <c r="I143" s="9">
+        <v>14918</v>
+      </c>
+      <c r="J143" s="9">
         <v>21515</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>25641</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>28448</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>29898</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>35843</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>64621</v>
+      </c>
+      <c r="F144" s="11">
+        <v>76748</v>
+      </c>
+      <c r="G144" s="11">
+        <v>105121</v>
+      </c>
+      <c r="H144" s="11">
+        <v>110656</v>
+      </c>
+      <c r="I144" s="11">
+        <v>141893</v>
+      </c>
+      <c r="J144" s="11">
         <v>127865</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>161581</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>176282</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>229217</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>203060</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -3267,52 +4842,97 @@
       <c r="I145" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="9">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9">
+        <v>0</v>
+      </c>
+      <c r="M145" s="9">
+        <v>0</v>
+      </c>
+      <c r="N145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>88066</v>
+      </c>
+      <c r="F146" s="11">
+        <v>92613</v>
+      </c>
+      <c r="G146" s="11">
+        <v>113793</v>
+      </c>
+      <c r="H146" s="11">
+        <v>83964</v>
+      </c>
+      <c r="I146" s="11">
+        <v>104171</v>
+      </c>
+      <c r="J146" s="11">
         <v>108556</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>139256</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>96606</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>146299</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>186497</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
+        <v>182203</v>
+      </c>
+      <c r="F147" s="15">
+        <v>222528</v>
+      </c>
+      <c r="G147" s="15">
+        <v>264580</v>
+      </c>
+      <c r="H147" s="15">
+        <v>227102</v>
+      </c>
+      <c r="I147" s="15">
+        <v>315197</v>
+      </c>
+      <c r="J147" s="15">
         <v>364409</v>
       </c>
-      <c r="F147" s="15">
+      <c r="K147" s="15">
         <v>342217</v>
       </c>
-      <c r="G147" s="15">
+      <c r="L147" s="15">
         <v>354061</v>
       </c>
-      <c r="H147" s="15">
+      <c r="M147" s="15">
         <v>468407</v>
       </c>
-      <c r="I147" s="15">
+      <c r="N147" s="15">
         <v>477467</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3321,8 +4941,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3331,8 +4956,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3341,10 +4971,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3353,8 +4988,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3363,123 +5003,128 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>

--- a/database/industries/darou/delor/cost/quarterly.xlsx
+++ b/database/industries/darou/delor/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA147704-0A0A-4D40-A9C2-4644F3C8B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB13FDF-1BD3-4377-80D6-9FCD6C2FF773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <t>نرخ موجودی اول دوره</t>
   </si>
   <si>
-    <t>00 / ریال</t>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>عدد / ریال</t>
@@ -720,12 +720,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -740,7 +740,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -789,7 +789,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -838,7 +838,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -890,155 +890,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1000240</v>
+        <v>1419174</v>
       </c>
       <c r="F10" s="9">
-        <v>1419174</v>
+        <v>1084071</v>
       </c>
       <c r="G10" s="9">
-        <v>1084071</v>
+        <v>1501992</v>
       </c>
       <c r="H10" s="9">
-        <v>1501992</v>
+        <v>2731474</v>
       </c>
       <c r="I10" s="9">
-        <v>2731474</v>
+        <v>2124058</v>
       </c>
       <c r="J10" s="9">
-        <v>2124058</v>
+        <v>1744332</v>
       </c>
       <c r="K10" s="9">
-        <v>1744332</v>
+        <v>2074140</v>
       </c>
       <c r="L10" s="9">
-        <v>2074140</v>
+        <v>2455797</v>
       </c>
       <c r="M10" s="9">
-        <v>2455797</v>
+        <v>3280580</v>
       </c>
       <c r="N10" s="9">
-        <v>3280580</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3098636</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>127160</v>
+        <v>113870</v>
       </c>
       <c r="F11" s="11">
-        <v>113870</v>
+        <v>128608</v>
       </c>
       <c r="G11" s="11">
-        <v>128608</v>
+        <v>140107</v>
       </c>
       <c r="H11" s="11">
-        <v>140107</v>
+        <v>182813</v>
       </c>
       <c r="I11" s="11">
-        <v>182813</v>
+        <v>172795</v>
       </c>
       <c r="J11" s="11">
-        <v>172795</v>
+        <v>186510</v>
       </c>
       <c r="K11" s="11">
-        <v>186510</v>
+        <v>237900</v>
       </c>
       <c r="L11" s="11">
-        <v>237900</v>
+        <v>307512</v>
       </c>
       <c r="M11" s="11">
-        <v>307512</v>
+        <v>285309</v>
       </c>
       <c r="N11" s="11">
-        <v>285309</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>304343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>182203</v>
+        <v>222528</v>
       </c>
       <c r="F12" s="9">
-        <v>222528</v>
+        <v>264580</v>
       </c>
       <c r="G12" s="9">
-        <v>264580</v>
+        <v>227102</v>
       </c>
       <c r="H12" s="9">
-        <v>227102</v>
+        <v>315197</v>
       </c>
       <c r="I12" s="9">
-        <v>315197</v>
+        <v>364409</v>
       </c>
       <c r="J12" s="9">
-        <v>364409</v>
+        <v>342217</v>
       </c>
       <c r="K12" s="9">
-        <v>342217</v>
+        <v>354061</v>
       </c>
       <c r="L12" s="9">
-        <v>354061</v>
+        <v>468407</v>
       </c>
       <c r="M12" s="9">
-        <v>468407</v>
+        <v>477467</v>
       </c>
       <c r="N12" s="9">
-        <v>477467</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>549706</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1309603</v>
+        <v>1755572</v>
       </c>
       <c r="F13" s="13">
-        <v>1755572</v>
+        <v>1477259</v>
       </c>
       <c r="G13" s="13">
-        <v>1477259</v>
+        <v>1869201</v>
       </c>
       <c r="H13" s="13">
-        <v>1869201</v>
+        <v>3229484</v>
       </c>
       <c r="I13" s="13">
-        <v>3229484</v>
+        <v>2661262</v>
       </c>
       <c r="J13" s="13">
-        <v>2661262</v>
+        <v>2273059</v>
       </c>
       <c r="K13" s="13">
-        <v>2273059</v>
+        <v>2666101</v>
       </c>
       <c r="L13" s="13">
-        <v>2666101</v>
+        <v>3231716</v>
       </c>
       <c r="M13" s="13">
-        <v>3231716</v>
+        <v>4043356</v>
       </c>
       <c r="N13" s="13">
-        <v>4043356</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3952685</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1075,81 +1075,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1309603</v>
+        <v>1755572</v>
       </c>
       <c r="F15" s="13">
-        <v>1755572</v>
+        <v>1477259</v>
       </c>
       <c r="G15" s="13">
-        <v>1477259</v>
+        <v>1869201</v>
       </c>
       <c r="H15" s="13">
-        <v>1869201</v>
+        <v>3229484</v>
       </c>
       <c r="I15" s="13">
-        <v>3229484</v>
+        <v>2661262</v>
       </c>
       <c r="J15" s="13">
-        <v>2661262</v>
+        <v>2273059</v>
       </c>
       <c r="K15" s="13">
-        <v>2273059</v>
+        <v>2666101</v>
       </c>
       <c r="L15" s="13">
-        <v>2666101</v>
+        <v>3231716</v>
       </c>
       <c r="M15" s="13">
-        <v>3231716</v>
+        <v>4043356</v>
       </c>
       <c r="N15" s="13">
-        <v>4043356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3952685</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>101100</v>
+        <v>-96099</v>
       </c>
       <c r="F16" s="9">
-        <v>-96099</v>
+        <v>-25084</v>
       </c>
       <c r="G16" s="9">
-        <v>-25084</v>
+        <v>-72203</v>
       </c>
       <c r="H16" s="9">
-        <v>-72203</v>
+        <v>26945</v>
       </c>
       <c r="I16" s="9">
-        <v>26945</v>
+        <v>-136912</v>
       </c>
       <c r="J16" s="9">
-        <v>-136912</v>
+        <v>-50790</v>
       </c>
       <c r="K16" s="9">
-        <v>-50790</v>
+        <v>-27773</v>
       </c>
       <c r="L16" s="9">
-        <v>-27773</v>
+        <v>-86528</v>
       </c>
       <c r="M16" s="9">
-        <v>-86528</v>
+        <v>89559</v>
       </c>
       <c r="N16" s="9">
-        <v>89559</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-136653</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1186,44 +1186,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1410703</v>
+        <v>1659473</v>
       </c>
       <c r="F18" s="15">
-        <v>1659473</v>
+        <v>1452175</v>
       </c>
       <c r="G18" s="15">
-        <v>1452175</v>
+        <v>1796998</v>
       </c>
       <c r="H18" s="15">
-        <v>1796998</v>
+        <v>3256429</v>
       </c>
       <c r="I18" s="15">
-        <v>3256429</v>
+        <v>2524350</v>
       </c>
       <c r="J18" s="15">
-        <v>2524350</v>
+        <v>2222269</v>
       </c>
       <c r="K18" s="15">
-        <v>2222269</v>
+        <v>2638328</v>
       </c>
       <c r="L18" s="15">
-        <v>2638328</v>
+        <v>3145188</v>
       </c>
       <c r="M18" s="15">
-        <v>3145188</v>
+        <v>4132915</v>
       </c>
       <c r="N18" s="15">
-        <v>4132915</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3816032</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1233,108 +1233,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>717911</v>
       </c>
       <c r="G19" s="11">
-        <v>202930</v>
+        <v>1110049</v>
       </c>
       <c r="H19" s="11">
-        <v>1110049</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>661606</v>
       </c>
       <c r="K19" s="11">
-        <v>404903</v>
+        <v>972477</v>
       </c>
       <c r="L19" s="11">
-        <v>972477</v>
+        <v>535133</v>
       </c>
       <c r="M19" s="11">
-        <v>535133</v>
+        <v>488000</v>
       </c>
       <c r="N19" s="11">
-        <v>488000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>664249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-142770</v>
+        <v>-202930</v>
       </c>
       <c r="F20" s="9">
-        <v>-202930</v>
+        <v>-1110049</v>
       </c>
       <c r="G20" s="9">
-        <v>-1110049</v>
+        <v>-1287140</v>
       </c>
       <c r="H20" s="9">
-        <v>-1287140</v>
+        <v>220631</v>
       </c>
       <c r="I20" s="9">
-        <v>220631</v>
+        <v>404903</v>
       </c>
       <c r="J20" s="9">
-        <v>404903</v>
+        <v>-972477</v>
       </c>
       <c r="K20" s="9">
-        <v>-972477</v>
+        <v>-535133</v>
       </c>
       <c r="L20" s="9">
-        <v>-535133</v>
+        <v>-488000</v>
       </c>
       <c r="M20" s="9">
-        <v>-488000</v>
+        <v>-664249</v>
       </c>
       <c r="N20" s="9">
-        <v>-664249</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1295492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1267933</v>
+        <v>1456543</v>
       </c>
       <c r="F21" s="13">
-        <v>1456543</v>
+        <v>1060037</v>
       </c>
       <c r="G21" s="13">
-        <v>1060037</v>
+        <v>1619907</v>
       </c>
       <c r="H21" s="13">
-        <v>1619907</v>
+        <v>3477060</v>
       </c>
       <c r="I21" s="13">
-        <v>3477060</v>
+        <v>2929253</v>
       </c>
       <c r="J21" s="13">
-        <v>2929253</v>
+        <v>1911398</v>
       </c>
       <c r="K21" s="13">
-        <v>1911398</v>
+        <v>3075672</v>
       </c>
       <c r="L21" s="13">
-        <v>3075672</v>
+        <v>3192321</v>
       </c>
       <c r="M21" s="13">
-        <v>3192321</v>
+        <v>3956666</v>
       </c>
       <c r="N21" s="13">
-        <v>3956666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3184789</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1371,44 +1371,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1267933</v>
+        <v>1456543</v>
       </c>
       <c r="F23" s="13">
-        <v>1456543</v>
+        <v>1060037</v>
       </c>
       <c r="G23" s="13">
-        <v>1060037</v>
+        <v>1619907</v>
       </c>
       <c r="H23" s="13">
-        <v>1619907</v>
+        <v>3477060</v>
       </c>
       <c r="I23" s="13">
-        <v>3477060</v>
+        <v>2929253</v>
       </c>
       <c r="J23" s="13">
-        <v>2929253</v>
+        <v>1911398</v>
       </c>
       <c r="K23" s="13">
-        <v>1911398</v>
+        <v>3075672</v>
       </c>
       <c r="L23" s="13">
-        <v>3075672</v>
+        <v>3192321</v>
       </c>
       <c r="M23" s="13">
-        <v>3192321</v>
+        <v>3956666</v>
       </c>
       <c r="N23" s="13">
-        <v>3956666</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3184789</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1423,7 +1423,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1453,7 +1453,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1505,7 +1505,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1519,11 +1519,11 @@
       <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>31</v>
@@ -1544,13 +1544,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
@@ -1565,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="11">
         <v>2</v>
@@ -1580,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="N30" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1622,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1636,11 +1634,11 @@
       <c r="F32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>31</v>
@@ -1661,7 +1659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="15">
         <v>2</v>
@@ -1695,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="N33" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1713,7 +1711,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1728,7 +1726,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1743,7 +1741,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1795,7 +1793,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>29</v>
       </c>
@@ -1806,14 +1804,14 @@
       <c r="E39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>31</v>
+      <c r="F39" s="9">
+        <v>0</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
       </c>
-      <c r="H39" s="9">
-        <v>0</v>
+      <c r="H39" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>31</v>
@@ -1834,13 +1832,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="11">
-        <v>0</v>
-      </c>
+      <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
         <v>0</v>
@@ -1852,28 +1848,28 @@
         <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
         <v>2</v>
       </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
       <c r="L40" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -1905,14 +1901,14 @@
       <c r="L41" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="9">
+      <c r="M41" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
@@ -1923,14 +1919,14 @@
       <c r="E42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>31</v>
+      <c r="F42" s="11">
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
+      <c r="H42" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>31</v>
@@ -1951,7 +1947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>17</v>
       </c>
@@ -1967,28 +1963,28 @@
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
         <v>2</v>
       </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
       <c r="L43" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="15">
         <v>0</v>
       </c>
       <c r="N43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2003,7 +1999,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2018,7 +2014,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2033,7 +2029,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>38</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2085,7 +2081,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2096,14 +2092,14 @@
       <c r="E49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>31</v>
+      <c r="F49" s="9">
+        <v>0</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
+      <c r="H49" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>31</v>
@@ -2124,13 +2120,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="11">
-        <v>0</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
         <v>0</v>
@@ -2142,28 +2136,28 @@
         <v>0</v>
       </c>
       <c r="H50" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
         <v>2</v>
       </c>
-      <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
-      </c>
       <c r="L50" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N50" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -2195,14 +2189,14 @@
       <c r="L51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" s="9">
+      <c r="M51" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>35</v>
       </c>
@@ -2213,14 +2207,14 @@
       <c r="E52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>31</v>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
+      <c r="H52" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>31</v>
@@ -2241,7 +2235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>17</v>
       </c>
@@ -2257,28 +2251,28 @@
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
         <v>2</v>
       </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
       <c r="L53" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" s="15">
         <v>0</v>
       </c>
       <c r="N53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2293,7 +2287,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2308,7 +2302,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2323,7 +2317,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>39</v>
       </c>
@@ -2360,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2375,7 +2369,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
@@ -2386,14 +2380,14 @@
       <c r="E59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>31</v>
+      <c r="F59" s="9">
+        <v>0</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
       </c>
-      <c r="H59" s="9">
-        <v>0</v>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>31</v>
@@ -2414,13 +2408,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="11">
-        <v>0</v>
-      </c>
+      <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
         <v>0</v>
@@ -2432,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" s="11">
         <v>2</v>
@@ -2447,13 +2439,13 @@
         <v>2</v>
       </c>
       <c r="M60" s="11">
+        <v>1</v>
+      </c>
+      <c r="N60" s="11">
         <v>2</v>
       </c>
-      <c r="N60" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -2485,14 +2477,14 @@
       <c r="L61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N61" s="9">
+      <c r="M61" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>35</v>
       </c>
@@ -2503,14 +2495,14 @@
       <c r="E62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>31</v>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
+      <c r="H62" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>31</v>
@@ -2531,7 +2523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" s="15">
         <v>2</v>
@@ -2568,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2583,7 +2575,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2598,7 +2590,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2613,7 +2605,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2665,7 +2657,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2679,11 +2671,11 @@
       <c r="F69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0</v>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>31</v>
@@ -2704,7 +2696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2713,37 +2705,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>1377883</v>
+        <v>1327918</v>
       </c>
       <c r="F70" s="11">
-        <v>1327918</v>
+        <v>1335187</v>
       </c>
       <c r="G70" s="11">
-        <v>1335187</v>
+        <v>2312210</v>
       </c>
       <c r="H70" s="11">
-        <v>2312210</v>
+        <v>2298622</v>
       </c>
       <c r="I70" s="11">
-        <v>2298622</v>
+        <v>2686103</v>
       </c>
       <c r="J70" s="11">
-        <v>2686103</v>
+        <v>3300576</v>
       </c>
       <c r="K70" s="11">
-        <v>3300576</v>
+        <v>4082209</v>
       </c>
       <c r="L70" s="11">
-        <v>4082209</v>
+        <v>3068591</v>
       </c>
       <c r="M70" s="11">
-        <v>3068591</v>
+        <v>3942866</v>
       </c>
       <c r="N70" s="11">
-        <v>3942866</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2880897</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>33</v>
       </c>
@@ -2782,7 +2774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>35</v>
       </c>
@@ -2796,11 +2788,11 @@
       <c r="F72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>31</v>
@@ -2821,44 +2813,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>1377883</v>
+        <v>1327918</v>
       </c>
       <c r="F73" s="15">
-        <v>1327918</v>
+        <v>1335187</v>
       </c>
       <c r="G73" s="15">
-        <v>1335187</v>
+        <v>2312210</v>
       </c>
       <c r="H73" s="15">
-        <v>2312210</v>
+        <v>2298622</v>
       </c>
       <c r="I73" s="15">
-        <v>2298622</v>
+        <v>2686103</v>
       </c>
       <c r="J73" s="15">
-        <v>2686103</v>
+        <v>3300576</v>
       </c>
       <c r="K73" s="15">
-        <v>3300576</v>
+        <v>4082209</v>
       </c>
       <c r="L73" s="15">
-        <v>4082209</v>
+        <v>3068591</v>
       </c>
       <c r="M73" s="15">
-        <v>3068591</v>
+        <v>3942866</v>
       </c>
       <c r="N73" s="15">
-        <v>3942866</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2880897</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2873,7 +2865,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2888,7 +2880,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2903,7 +2895,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>41</v>
       </c>
@@ -2940,7 +2932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2955,7 +2947,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
@@ -2966,14 +2958,14 @@
       <c r="E79" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>31</v>
+      <c r="F79" s="9">
+        <v>0</v>
       </c>
       <c r="G79" s="9">
         <v>0</v>
       </c>
-      <c r="H79" s="9">
-        <v>0</v>
+      <c r="H79" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>31</v>
@@ -2994,7 +2986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
@@ -3003,37 +2995,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>950275</v>
+        <v>1426443</v>
       </c>
       <c r="F80" s="11">
-        <v>1426443</v>
+        <v>2065973</v>
       </c>
       <c r="G80" s="11">
-        <v>2065973</v>
+        <v>1488404</v>
       </c>
       <c r="H80" s="11">
-        <v>1488404</v>
+        <v>3112107</v>
       </c>
       <c r="I80" s="11">
-        <v>3112107</v>
+        <v>2738531</v>
       </c>
       <c r="J80" s="11">
-        <v>2738531</v>
+        <v>2532814</v>
       </c>
       <c r="K80" s="11">
-        <v>2532814</v>
+        <v>1060522</v>
       </c>
       <c r="L80" s="11">
-        <v>1060522</v>
+        <v>3330072</v>
       </c>
       <c r="M80" s="11">
-        <v>3330072</v>
+        <v>647745</v>
       </c>
       <c r="N80" s="11">
-        <v>647745</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9097853</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>33</v>
       </c>
@@ -3065,14 +3057,14 @@
       <c r="L81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" s="9">
+      <c r="M81" s="9">
         <v>3668489</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -3083,14 +3075,14 @@
       <c r="E82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>31</v>
+      <c r="F82" s="11">
+        <v>0</v>
       </c>
       <c r="G82" s="11">
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <v>0</v>
+      <c r="H82" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>31</v>
@@ -3111,44 +3103,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>950275</v>
+        <v>1426443</v>
       </c>
       <c r="F83" s="15">
-        <v>1426443</v>
+        <v>2065973</v>
       </c>
       <c r="G83" s="15">
-        <v>2065973</v>
+        <v>1488404</v>
       </c>
       <c r="H83" s="15">
-        <v>1488404</v>
+        <v>3112107</v>
       </c>
       <c r="I83" s="15">
-        <v>3112107</v>
+        <v>2738531</v>
       </c>
       <c r="J83" s="15">
-        <v>2738531</v>
+        <v>2532814</v>
       </c>
       <c r="K83" s="15">
-        <v>2532814</v>
+        <v>1060522</v>
       </c>
       <c r="L83" s="15">
-        <v>1060522</v>
+        <v>3330072</v>
       </c>
       <c r="M83" s="15">
-        <v>3330072</v>
+        <v>4316234</v>
       </c>
       <c r="N83" s="15">
-        <v>4316234</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9097853</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3163,7 +3155,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3178,7 +3170,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3193,7 +3185,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>42</v>
       </c>
@@ -3230,7 +3222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3245,7 +3237,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3256,14 +3248,14 @@
       <c r="E89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>31</v>
+      <c r="F89" s="9">
+        <v>0</v>
       </c>
       <c r="G89" s="9">
         <v>0</v>
       </c>
-      <c r="H89" s="9">
-        <v>0</v>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>31</v>
@@ -3284,7 +3276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3293,37 +3285,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>1000240</v>
+        <v>1419174</v>
       </c>
       <c r="F90" s="11">
-        <v>1419174</v>
+        <v>1084071</v>
       </c>
       <c r="G90" s="11">
-        <v>1084071</v>
+        <v>1501992</v>
       </c>
       <c r="H90" s="11">
-        <v>1501992</v>
+        <v>2731474</v>
       </c>
       <c r="I90" s="11">
-        <v>2731474</v>
+        <v>2124058</v>
       </c>
       <c r="J90" s="11">
-        <v>2124058</v>
+        <v>1744332</v>
       </c>
       <c r="K90" s="11">
-        <v>1744332</v>
+        <v>2074140</v>
       </c>
       <c r="L90" s="11">
-        <v>2074140</v>
+        <v>2455797</v>
       </c>
       <c r="M90" s="11">
-        <v>2455797</v>
+        <v>-10262</v>
       </c>
       <c r="N90" s="11">
-        <v>-10262</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6389478</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
@@ -3355,14 +3347,14 @@
       <c r="L91" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M91" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N91" s="9">
+      <c r="M91" s="9">
         <v>3290842</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -3373,14 +3365,14 @@
       <c r="E92" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>31</v>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>0</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
+      <c r="H92" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>31</v>
@@ -3401,44 +3393,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>1000240</v>
+        <v>1419174</v>
       </c>
       <c r="F93" s="15">
-        <v>1419174</v>
+        <v>1084071</v>
       </c>
       <c r="G93" s="15">
-        <v>1084071</v>
+        <v>1501992</v>
       </c>
       <c r="H93" s="15">
-        <v>1501992</v>
+        <v>2731474</v>
       </c>
       <c r="I93" s="15">
-        <v>2731474</v>
+        <v>2124058</v>
       </c>
       <c r="J93" s="15">
-        <v>2124058</v>
+        <v>1744332</v>
       </c>
       <c r="K93" s="15">
-        <v>1744332</v>
+        <v>2074140</v>
       </c>
       <c r="L93" s="15">
-        <v>2074140</v>
+        <v>2455797</v>
       </c>
       <c r="M93" s="15">
-        <v>2455797</v>
+        <v>3280580</v>
       </c>
       <c r="N93" s="15">
-        <v>3280580</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6389478</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3453,7 +3445,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3468,7 +3460,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3483,7 +3475,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>43</v>
       </c>
@@ -3520,7 +3512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3535,7 +3527,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3546,14 +3538,14 @@
       <c r="E99" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>31</v>
+      <c r="F99" s="9">
+        <v>0</v>
       </c>
       <c r="G99" s="9">
         <v>0</v>
       </c>
-      <c r="H99" s="9">
-        <v>0</v>
+      <c r="H99" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>31</v>
@@ -3574,7 +3566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3583,37 +3575,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>1327918</v>
+        <v>1335187</v>
       </c>
       <c r="F100" s="11">
-        <v>1335187</v>
+        <v>2312210</v>
       </c>
       <c r="G100" s="11">
-        <v>2312210</v>
+        <v>2298622</v>
       </c>
       <c r="H100" s="11">
-        <v>2298622</v>
+        <v>2686103</v>
       </c>
       <c r="I100" s="11">
-        <v>2686103</v>
+        <v>3300576</v>
       </c>
       <c r="J100" s="11">
-        <v>3300576</v>
+        <v>4082209</v>
       </c>
       <c r="K100" s="11">
-        <v>4082209</v>
+        <v>3068591</v>
       </c>
       <c r="L100" s="11">
-        <v>3068591</v>
+        <v>3942866</v>
       </c>
       <c r="M100" s="11">
-        <v>3942866</v>
+        <v>2880897</v>
       </c>
       <c r="N100" s="11">
-        <v>2880897</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7309248</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -3645,14 +3637,14 @@
       <c r="L101" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N101" s="9">
+      <c r="M101" s="9">
         <v>2097623</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>35</v>
       </c>
@@ -3663,14 +3655,14 @@
       <c r="E102" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>31</v>
+      <c r="F102" s="11">
+        <v>0</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
       </c>
-      <c r="H102" s="11">
-        <v>0</v>
+      <c r="H102" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>31</v>
@@ -3691,44 +3683,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>1327918</v>
+        <v>1335187</v>
       </c>
       <c r="F103" s="15">
-        <v>1335187</v>
+        <v>2312210</v>
       </c>
       <c r="G103" s="15">
-        <v>2312210</v>
+        <v>2298622</v>
       </c>
       <c r="H103" s="15">
-        <v>2298622</v>
+        <v>2686103</v>
       </c>
       <c r="I103" s="15">
-        <v>2686103</v>
+        <v>3300576</v>
       </c>
       <c r="J103" s="15">
-        <v>3300576</v>
+        <v>4082209</v>
       </c>
       <c r="K103" s="15">
-        <v>4082209</v>
+        <v>3068591</v>
       </c>
       <c r="L103" s="15">
-        <v>3068591</v>
+        <v>3942866</v>
       </c>
       <c r="M103" s="15">
-        <v>3942866</v>
+        <v>4978520</v>
       </c>
       <c r="N103" s="15">
-        <v>4978520</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7309248</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3743,7 +3735,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3758,7 +3750,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3773,7 +3765,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>44</v>
       </c>
@@ -3810,7 +3802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3825,7 +3817,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>32</v>
       </c>
@@ -3845,26 +3837,26 @@
       <c r="H109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="9" t="s">
-        <v>31</v>
+      <c r="I109" s="9">
+        <v>1343051500000</v>
       </c>
       <c r="J109" s="9">
-        <v>1343051500000</v>
+        <v>1650288000000</v>
       </c>
       <c r="K109" s="9">
-        <v>1650288000000</v>
+        <v>2041104500000</v>
       </c>
       <c r="L109" s="9">
-        <v>2041104500000</v>
+        <v>1534295500000</v>
       </c>
       <c r="M109" s="9">
-        <v>1534295500000</v>
+        <v>1971433000000</v>
       </c>
       <c r="N109" s="9">
-        <v>1971433000000</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2880897000000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>33</v>
       </c>
@@ -3903,7 +3895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3918,7 +3910,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3933,7 +3925,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3948,7 +3940,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>47</v>
       </c>
@@ -3985,7 +3977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4000,7 +3992,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>32</v>
       </c>
@@ -4017,29 +4009,29 @@
       <c r="G116" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I116" s="9">
+      <c r="H116" s="9">
         <v>1556053500000</v>
       </c>
+      <c r="I116" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J116" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K116" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L116" s="9">
+      <c r="K116" s="9">
         <v>530261000000</v>
       </c>
-      <c r="M116" s="9" t="s">
-        <v>31</v>
+      <c r="L116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="9">
+        <v>-647745000000</v>
       </c>
       <c r="N116" s="9">
-        <v>-647745000000</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9097853000000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>33</v>
       </c>
@@ -4071,14 +4063,14 @@
       <c r="L117" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M117" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N117" s="11">
+      <c r="M117" s="11">
         <v>3668489000000</v>
       </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4093,7 +4085,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4108,7 +4100,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4123,7 +4115,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>48</v>
       </c>
@@ -4160,7 +4152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4175,7 +4167,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>32</v>
       </c>
@@ -4192,29 +4184,29 @@
       <c r="G123" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I123" s="9">
+      <c r="H123" s="9">
         <v>1365737000000</v>
       </c>
+      <c r="I123" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J123" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L123" s="9">
+      <c r="K123" s="9">
         <v>1037070000000</v>
       </c>
-      <c r="M123" s="9" t="s">
-        <v>31</v>
+      <c r="L123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="9">
+        <v>10262000000</v>
       </c>
       <c r="N123" s="9">
-        <v>10262000000</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6389478000000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>33</v>
       </c>
@@ -4246,14 +4238,14 @@
       <c r="L124" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N124" s="11">
+      <c r="M124" s="11">
         <v>3290842000000</v>
       </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N124" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4268,7 +4260,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4283,7 +4275,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4298,7 +4290,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>49</v>
       </c>
@@ -4335,7 +4327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4350,13 +4342,11 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="9">
-        <v>0</v>
-      </c>
+      <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
         <v>31</v>
@@ -4367,29 +4357,29 @@
       <c r="G130" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H130" s="9" t="s">
-        <v>31</v>
+      <c r="H130" s="9">
+        <v>1343051500000</v>
       </c>
       <c r="I130" s="9">
-        <v>1343051500000</v>
+        <v>1650288000000</v>
       </c>
       <c r="J130" s="9">
-        <v>1650288000000</v>
+        <v>2041104500000</v>
       </c>
       <c r="K130" s="9">
-        <v>2041104500000</v>
+        <v>1534295500000</v>
       </c>
       <c r="L130" s="9">
-        <v>1534295500000</v>
+        <v>1971433000000</v>
       </c>
       <c r="M130" s="9">
-        <v>1971433000000</v>
+        <v>2880897000000</v>
       </c>
       <c r="N130" s="9">
-        <v>2880897000000</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3654624000000</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>33</v>
       </c>
@@ -4421,14 +4411,14 @@
       <c r="L131" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M131" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N131" s="11">
+      <c r="M131" s="11">
         <v>2097623000000</v>
       </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4443,7 +4433,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4458,7 +4448,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4473,7 +4463,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>50</v>
       </c>
@@ -4510,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4525,44 +4515,44 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>6527</v>
+        <v>8963</v>
       </c>
       <c r="F137" s="9">
-        <v>8963</v>
+        <v>8901</v>
       </c>
       <c r="G137" s="9">
-        <v>8901</v>
+        <v>7452</v>
       </c>
       <c r="H137" s="9">
-        <v>7452</v>
+        <v>13127</v>
       </c>
       <c r="I137" s="9">
-        <v>13127</v>
+        <v>13060</v>
       </c>
       <c r="J137" s="9">
-        <v>13060</v>
+        <v>17583</v>
       </c>
       <c r="K137" s="9">
-        <v>17583</v>
+        <v>8826</v>
       </c>
       <c r="L137" s="9">
-        <v>8826</v>
+        <v>18742</v>
       </c>
       <c r="M137" s="9">
-        <v>18742</v>
+        <v>20123</v>
       </c>
       <c r="N137" s="9">
-        <v>20123</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23777</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>52</v>
       </c>
@@ -4599,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>53</v>
       </c>
@@ -4636,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>54</v>
       </c>
@@ -4673,155 +4663,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>9450</v>
+        <v>30160</v>
       </c>
       <c r="F141" s="9">
-        <v>30160</v>
+        <v>12913</v>
       </c>
       <c r="G141" s="9">
-        <v>12913</v>
+        <v>7096</v>
       </c>
       <c r="H141" s="9">
-        <v>7096</v>
+        <v>30195</v>
       </c>
       <c r="I141" s="9">
-        <v>30195</v>
+        <v>79872</v>
       </c>
       <c r="J141" s="9">
-        <v>79872</v>
+        <v>-21677</v>
       </c>
       <c r="K141" s="9">
-        <v>-21677</v>
+        <v>35671</v>
       </c>
       <c r="L141" s="9">
-        <v>35671</v>
+        <v>29351</v>
       </c>
       <c r="M141" s="9">
-        <v>29351</v>
+        <v>19914</v>
       </c>
       <c r="N141" s="9">
-        <v>19914</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22137</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>5007</v>
+        <v>5335</v>
       </c>
       <c r="F142" s="11">
-        <v>5335</v>
+        <v>8372</v>
       </c>
       <c r="G142" s="11">
-        <v>8372</v>
+        <v>4574</v>
       </c>
       <c r="H142" s="11">
-        <v>4574</v>
+        <v>10893</v>
       </c>
       <c r="I142" s="11">
-        <v>10893</v>
+        <v>13541</v>
       </c>
       <c r="J142" s="11">
-        <v>13541</v>
+        <v>19833</v>
       </c>
       <c r="K142" s="11">
-        <v>19833</v>
+        <v>8228</v>
       </c>
       <c r="L142" s="11">
-        <v>8228</v>
+        <v>14900</v>
       </c>
       <c r="M142" s="11">
-        <v>14900</v>
+        <v>12030</v>
       </c>
       <c r="N142" s="11">
-        <v>12030</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>8532</v>
+        <v>8709</v>
       </c>
       <c r="F143" s="9">
-        <v>8709</v>
+        <v>15480</v>
       </c>
       <c r="G143" s="9">
-        <v>15480</v>
+        <v>13360</v>
       </c>
       <c r="H143" s="9">
-        <v>13360</v>
+        <v>14918</v>
       </c>
       <c r="I143" s="9">
-        <v>14918</v>
+        <v>21515</v>
       </c>
       <c r="J143" s="9">
-        <v>21515</v>
+        <v>25641</v>
       </c>
       <c r="K143" s="9">
-        <v>25641</v>
+        <v>28448</v>
       </c>
       <c r="L143" s="9">
-        <v>28448</v>
+        <v>29898</v>
       </c>
       <c r="M143" s="9">
-        <v>29898</v>
+        <v>35843</v>
       </c>
       <c r="N143" s="9">
-        <v>35843</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36019</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>64621</v>
+        <v>76748</v>
       </c>
       <c r="F144" s="11">
-        <v>76748</v>
+        <v>105121</v>
       </c>
       <c r="G144" s="11">
-        <v>105121</v>
+        <v>110656</v>
       </c>
       <c r="H144" s="11">
-        <v>110656</v>
+        <v>141893</v>
       </c>
       <c r="I144" s="11">
-        <v>141893</v>
+        <v>127865</v>
       </c>
       <c r="J144" s="11">
-        <v>127865</v>
+        <v>161581</v>
       </c>
       <c r="K144" s="11">
-        <v>161581</v>
+        <v>176282</v>
       </c>
       <c r="L144" s="11">
-        <v>176282</v>
+        <v>229217</v>
       </c>
       <c r="M144" s="11">
-        <v>229217</v>
+        <v>203060</v>
       </c>
       <c r="N144" s="11">
-        <v>203060</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>245343</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>59</v>
       </c>
@@ -4858,81 +4848,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>88066</v>
+        <v>92613</v>
       </c>
       <c r="F146" s="11">
-        <v>92613</v>
+        <v>113793</v>
       </c>
       <c r="G146" s="11">
-        <v>113793</v>
+        <v>83964</v>
       </c>
       <c r="H146" s="11">
-        <v>83964</v>
+        <v>104171</v>
       </c>
       <c r="I146" s="11">
-        <v>104171</v>
+        <v>108556</v>
       </c>
       <c r="J146" s="11">
-        <v>108556</v>
+        <v>139256</v>
       </c>
       <c r="K146" s="11">
-        <v>139256</v>
+        <v>96606</v>
       </c>
       <c r="L146" s="11">
-        <v>96606</v>
+        <v>146299</v>
       </c>
       <c r="M146" s="11">
-        <v>146299</v>
+        <v>186497</v>
       </c>
       <c r="N146" s="11">
-        <v>186497</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>206645</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
-        <v>182203</v>
+        <v>222528</v>
       </c>
       <c r="F147" s="15">
-        <v>222528</v>
+        <v>264580</v>
       </c>
       <c r="G147" s="15">
-        <v>264580</v>
+        <v>227102</v>
       </c>
       <c r="H147" s="15">
-        <v>227102</v>
+        <v>315197</v>
       </c>
       <c r="I147" s="15">
-        <v>315197</v>
+        <v>364409</v>
       </c>
       <c r="J147" s="15">
-        <v>364409</v>
+        <v>342217</v>
       </c>
       <c r="K147" s="15">
-        <v>342217</v>
+        <v>354061</v>
       </c>
       <c r="L147" s="15">
-        <v>354061</v>
+        <v>468407</v>
       </c>
       <c r="M147" s="15">
-        <v>468407</v>
+        <v>477467</v>
       </c>
       <c r="N147" s="15">
-        <v>477467</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>549706</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4947,7 +4937,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4962,7 +4952,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4977,7 +4967,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>61</v>
       </c>
@@ -4994,7 +4984,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5009,7 +4999,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>62</v>
       </c>
@@ -5020,7 +5010,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>64</v>
       </c>
@@ -5031,7 +5021,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>66</v>
       </c>
@@ -5042,7 +5032,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>68</v>
       </c>
@@ -5053,7 +5043,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>70</v>
       </c>
@@ -5064,7 +5054,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>71</v>
       </c>
@@ -5075,7 +5065,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>72</v>
       </c>
@@ -5086,7 +5076,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>74</v>
       </c>
@@ -5097,7 +5087,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>76</v>
       </c>
@@ -5108,7 +5098,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>74</v>
       </c>
@@ -5119,7 +5109,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>78</v>
       </c>
